--- a/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T16:24:12+00:00</t>
+    <t>2023-03-23T17:12:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:12:21+00:00</t>
+    <t>2023-03-23T17:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:13:08+00:00</t>
+    <t>2023-03-23T17:14:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:14:59+00:00</t>
+    <t>2023-03-23T17:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:21:24+00:00</t>
+    <t>2023-03-23T17:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/M-Priour-patch-2/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:27:38+00:00</t>
+    <t>2023-03-24T09:45:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
